--- a/slim_gsgp/results_test_fitness_size.xlsx
+++ b/slim_gsgp/results_test_fitness_size.xlsx
@@ -3838,6 +3838,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3858,6 +3859,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3902,16 +3904,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4041,7 +4047,7 @@
   <dimension ref="A1:AW39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4050,172 +4056,172 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1" t="s">
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1" t="s">
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1" t="s">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1" t="s">
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1" t="s">
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1" t="s">
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1" t="s">
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1" t="s">
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1" t="s">
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1" t="s">
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AW2" s="1"/>
+      <c r="AW2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -6597,328 +6603,328 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
-      <c r="AL20" s="2"/>
-      <c r="AM20" s="2"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="2"/>
-      <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="2"/>
-      <c r="AU20" s="2"/>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="2"/>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="2"/>
-      <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-      <c r="AT21" s="2"/>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1" t="s">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1" t="s">
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1" t="s">
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1" t="s">
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1" t="s">
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1" t="s">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1" t="s">
+      <c r="U23" s="2"/>
+      <c r="V23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1" t="s">
+      <c r="W23" s="2"/>
+      <c r="X23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1" t="s">
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1" t="s">
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1" t="s">
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1" t="s">
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1" t="s">
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1" t="s">
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1" t="s">
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1" t="s">
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1" t="s">
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1" t="s">
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1" t="s">
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1" t="s">
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AW23" s="1"/>
+      <c r="AW23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
